--- a/DocAndArt/xlsx/excelToJson/config.xlsx
+++ b/DocAndArt/xlsx/excelToJson/config.xlsx
@@ -8,11 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="GuanQia" sheetId="1" r:id="rId1"/>
-    <sheet name="Monster" sheetId="2" r:id="rId2"/>
-    <sheet name="Man" sheetId="3" r:id="rId3"/>
-    <sheet name="Supply" sheetId="4" r:id="rId4"/>
-    <sheet name="BUFF" sheetId="5" r:id="rId5"/>
-    <sheet name="Fort" sheetId="6" r:id="rId6"/>
+    <sheet name="uMonsterId" sheetId="8" r:id="rId2"/>
+    <sheet name="Monster" sheetId="2" r:id="rId3"/>
+    <sheet name="movepos" sheetId="7" r:id="rId4"/>
+    <sheet name="Man" sheetId="3" r:id="rId5"/>
+    <sheet name="Supply" sheetId="4" r:id="rId6"/>
+    <sheet name="BUFF" sheetId="5" r:id="rId7"/>
+    <sheet name="Fort" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -855,7 +857,7 @@
     <author>LIN</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -898,6 +900,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>初次生成时间</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E1" authorId="0">
       <text>
         <r>
@@ -909,7 +936,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>初次生成时间</t>
+          <t>允许同时存在</t>
         </r>
         <r>
           <rPr>
@@ -934,17 +961,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>允许同时存在</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>刷新间隔</t>
         </r>
       </text>
     </comment>
@@ -959,7 +976,17 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>刷新间隔</t>
+          <t>是否为死后刷新</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -974,7 +1001,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>是否为死后刷新</t>
+          <t>是否开局生成</t>
         </r>
         <r>
           <rPr>
@@ -999,7 +1026,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>是否开局生成</t>
+          <t>生成位置</t>
         </r>
         <r>
           <rPr>
@@ -1024,31 +1051,6 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>生成位置</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
           <t>移动终点</t>
         </r>
         <r>
@@ -1063,7 +1065,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1">
+    <comment ref="K1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1080,6 +1082,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>初次隐身时间点</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M1" authorId="0">
       <text>
         <r>
@@ -1091,7 +1118,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>初次隐身时间点</t>
+          <t>隐身时长</t>
         </r>
         <r>
           <rPr>
@@ -1116,7 +1143,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>隐身时长</t>
+          <t>现身时长</t>
         </r>
         <r>
           <rPr>
@@ -1141,7 +1168,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>现身时长</t>
+          <t>初次停顿</t>
         </r>
         <r>
           <rPr>
@@ -1166,7 +1193,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>初次停顿</t>
+          <t>停顿间隔</t>
         </r>
         <r>
           <rPr>
@@ -1191,7 +1218,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>停顿间隔</t>
+          <t>停顿时长</t>
         </r>
         <r>
           <rPr>
@@ -1216,7 +1243,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>停顿时长</t>
+          <t>移动速度</t>
         </r>
         <r>
           <rPr>
@@ -1241,7 +1268,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>移动速度</t>
+          <t>是否分裂</t>
         </r>
         <r>
           <rPr>
@@ -1266,7 +1293,17 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>是否分裂</t>
+          <t>子</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>id</t>
         </r>
         <r>
           <rPr>
@@ -1291,17 +1328,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>子</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>id</t>
+          <t>初次平民时间</t>
         </r>
         <r>
           <rPr>
@@ -1326,7 +1353,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>初次平民时间</t>
+          <t>平民现身时长</t>
         </r>
         <r>
           <rPr>
@@ -1351,7 +1378,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>平民现身时长</t>
+          <t>平民现身间隔</t>
         </r>
         <r>
           <rPr>
@@ -1376,7 +1403,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>平民现身间隔</t>
+          <t>现身次数</t>
         </r>
         <r>
           <rPr>
@@ -1391,31 +1418,6 @@
       </text>
     </comment>
     <comment ref="Y1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>现身次数</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1447,55 +1449,38 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Administrator</author>
+    <author>l</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>平民集</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Id
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>刷新间隔</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>移动起点</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>移动过度点；
+如果有过度点，则按过渡点的先后顺序移动；
+多点情况，用逗号隔开；</t>
         </r>
       </text>
     </comment>
@@ -1510,116 +1495,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>是否开局生成</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>初次生成时间</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>是否为堡垒</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堡垒生成位置</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堡垒生命值</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>1.直接回到起点；
+2.原路返回起点；</t>
         </r>
       </text>
     </comment>
@@ -1643,7 +1520,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>补给集</t>
+          <t>平民集</t>
         </r>
         <r>
           <rPr>
@@ -1657,41 +1534,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>补给</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Id</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D1" authorId="0">
       <text>
         <r>
@@ -1703,6 +1545,31 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>刷新间隔</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t>是否开局生成</t>
         </r>
         <r>
@@ -1717,18 +1584,42 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>初次生成时间</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>出现概率</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>是否为堡垒</t>
         </r>
         <r>
           <rPr>
@@ -1753,7 +1644,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>同场上限数量</t>
+          <t>堡垒生成位置</t>
         </r>
         <r>
           <rPr>
@@ -1778,82 +1669,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>补给时间</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>补给弹药</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>是否消失</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>持续时间</t>
+          <t>堡垒生命值</t>
         </r>
         <r>
           <rPr>
@@ -1877,6 +1693,30 @@
     <author>Administrator</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>补给集</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Id
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B1" authorId="0">
       <text>
         <r>
@@ -1888,32 +1728,17 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>增加生命数量</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>子弹补充出现概率提升</t>
+          <t>补给</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Id</t>
         </r>
         <r>
           <rPr>
@@ -1938,32 +1763,157 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>时间补给出现概率提升</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>售价</t>
+          <t>是否开局生成</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>出现概率</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>同场上限数量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>补给时间</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>补给弹药</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>是否消失</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>持续时间</t>
         </r>
         <r>
           <rPr>
@@ -1998,6 +1948,116 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>增加生命数量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>子弹补充出现概率提升</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>时间补给出现概率提升</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>售价</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t>波数</t>
         </r>
         <r>
@@ -2042,7 +2102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>gId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2120,219 +2180,263 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>timer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initHideTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hideDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initStop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSplit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initManTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manShowDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manShowInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manShowCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uManId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGenOnStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortGenPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uSuplyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suplyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGenOnStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGenOnStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refreshInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refreshInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlimitCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suplyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suplyBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDisappear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addLifeCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletSupplyRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeSupplyRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roundCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707,501;627,196;193,260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920,684;915,85;238,618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>genPos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>movegenPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707,501;627,196;193,260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920,684;915,85;238,618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>movEndPos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>timer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initHideTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hideDelta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showDelta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initStop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stopInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stopDelta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isSplit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>childId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initManTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manShowDelta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manShowInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manShowCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uManId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isGenOnStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fortGenPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fortHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uSuplyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suplyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isGenOnStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isGenOnStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refreshInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refreshInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxlimitCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suplyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suplyBullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDisappear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addLifeCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletSupplyRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeSupplyRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fortId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roundCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>707,501;627,196;193,260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920,684;915,85;238,618</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10</t>
+    <t>movemidPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movePosID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movePosID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uMonsterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005，10006，10007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2385,12 +2489,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2407,7 +2517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2415,6 +2525,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2426,6 +2548,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2719,7 +2844,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2734,8 +2859,8 @@
     <col min="8" max="8" width="19.375" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
     <col min="14" max="14" width="21.625" customWidth="1"/>
     <col min="15" max="15" width="12.75" customWidth="1"/>
   </cols>
@@ -2766,7 +2891,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -2786,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>120</v>
@@ -2824,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -2862,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>60</v>
@@ -2900,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -2938,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>-1</v>
@@ -2976,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>60</v>
@@ -3014,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -3052,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -3090,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -3130,614 +3255,659 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB8"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
-    <col min="15" max="15" width="10.875" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="17" width="14.625" customWidth="1"/>
-    <col min="18" max="18" width="16.375" customWidth="1"/>
-    <col min="19" max="19" width="15.125" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="15.875" customWidth="1"/>
-    <col min="22" max="22" width="16.125" customWidth="1"/>
-    <col min="23" max="23" width="13.625" customWidth="1"/>
-    <col min="24" max="24" width="18" customWidth="1"/>
-    <col min="25" max="25" width="15.125" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="11.125" customWidth="1"/>
-    <col min="28" max="28" width="9" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="36.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>101</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>10001</v>
       </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AA8"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="11.375" customWidth="1"/>
+    <col min="14" max="14" width="10.875" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="16.375" customWidth="1"/>
+    <col min="18" max="18" width="15.125" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="15.875" customWidth="1"/>
+    <col min="21" max="21" width="16.125" customWidth="1"/>
+    <col min="22" max="22" width="13.625" customWidth="1"/>
+    <col min="23" max="23" width="18" customWidth="1"/>
+    <col min="24" max="24" width="15.125" customWidth="1"/>
+    <col min="25" max="25" width="12" customWidth="1"/>
+    <col min="26" max="26" width="11.125" customWidth="1"/>
+    <col min="27" max="27" width="9" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2">
+        <v>10001</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="b">
         <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" s="5">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
+        <v>-1</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <v>-1</v>
+      </c>
+      <c r="N2">
+        <v>-1</v>
+      </c>
+      <c r="O2">
+        <v>-1</v>
+      </c>
+      <c r="P2">
+        <v>-1</v>
+      </c>
+      <c r="Q2">
+        <v>-1</v>
+      </c>
+      <c r="R2">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>-1</v>
-      </c>
-      <c r="L2">
-        <v>-1</v>
-      </c>
-      <c r="M2">
-        <v>-1</v>
-      </c>
-      <c r="N2">
-        <v>-1</v>
-      </c>
-      <c r="O2">
-        <v>-1</v>
-      </c>
-      <c r="P2">
-        <v>-1</v>
-      </c>
-      <c r="Q2">
-        <v>-1</v>
-      </c>
-      <c r="R2">
-        <v>-1</v>
-      </c>
-      <c r="S2">
-        <v>-1</v>
-      </c>
-      <c r="T2" t="b">
+      <c r="T2">
+        <v>-1</v>
+      </c>
+      <c r="U2">
+        <v>-1</v>
+      </c>
+      <c r="V2">
+        <v>-1</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3">
+        <v>10002</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="U2">
-        <v>-1</v>
-      </c>
-      <c r="V2">
-        <v>-1</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
+      <c r="E3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3">
-        <v>102</v>
-      </c>
-      <c r="B3">
-        <v>10002</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="b">
         <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>-1</v>
+      </c>
+      <c r="M3">
+        <v>-1</v>
+      </c>
+      <c r="N3">
+        <v>-1</v>
+      </c>
+      <c r="O3">
+        <v>-1</v>
+      </c>
+      <c r="P3">
+        <v>-1</v>
+      </c>
+      <c r="Q3">
+        <v>-1</v>
+      </c>
+      <c r="R3">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="b">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>-1</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>-1</v>
-      </c>
-      <c r="N3">
-        <v>-1</v>
-      </c>
-      <c r="O3">
-        <v>-1</v>
-      </c>
-      <c r="P3">
-        <v>-1</v>
-      </c>
-      <c r="Q3">
-        <v>-1</v>
-      </c>
-      <c r="R3">
-        <v>-1</v>
-      </c>
-      <c r="S3">
-        <v>-1</v>
-      </c>
-      <c r="T3" t="b">
+      <c r="T3">
+        <v>-1</v>
+      </c>
+      <c r="U3">
+        <v>-1</v>
+      </c>
+      <c r="V3">
+        <v>-1</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>-1</v>
-      </c>
-      <c r="V3">
-        <v>-1</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
+      <c r="E4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4">
-        <v>102</v>
-      </c>
-      <c r="B4">
-        <v>10003</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="b">
         <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
+      <c r="N4">
+        <v>-1</v>
+      </c>
+      <c r="O4">
+        <v>-1</v>
+      </c>
+      <c r="P4">
+        <v>-1</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="b">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>-1</v>
-      </c>
-      <c r="L4">
-        <v>-1</v>
-      </c>
-      <c r="M4">
-        <v>-1</v>
-      </c>
-      <c r="N4">
-        <v>-1</v>
-      </c>
-      <c r="O4">
-        <v>-1</v>
-      </c>
-      <c r="P4">
-        <v>-1</v>
-      </c>
-      <c r="Q4">
-        <v>-1</v>
-      </c>
-      <c r="R4">
-        <v>-1</v>
-      </c>
-      <c r="S4">
-        <v>-1</v>
-      </c>
-      <c r="T4" t="b">
+      <c r="T4">
+        <v>-1</v>
+      </c>
+      <c r="U4">
+        <v>-1</v>
+      </c>
+      <c r="V4">
+        <v>-1</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5">
+        <v>10004</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="U4">
-        <v>-1</v>
-      </c>
-      <c r="V4">
-        <v>-1</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
-      <c r="Z4">
+      <c r="E5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5">
-        <v>103</v>
-      </c>
-      <c r="B5">
-        <v>10004</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5" t="b">
         <v>1</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <v>-1</v>
+      </c>
+      <c r="M5">
+        <v>-1</v>
+      </c>
+      <c r="N5">
+        <v>-1</v>
+      </c>
+      <c r="O5">
+        <v>-1</v>
+      </c>
+      <c r="P5">
+        <v>-1</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>50</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>-1</v>
+      </c>
+      <c r="U5">
+        <v>-1</v>
+      </c>
+      <c r="V5">
+        <v>-1</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5">
-        <v>-1</v>
-      </c>
-      <c r="M5">
-        <v>-1</v>
-      </c>
-      <c r="N5">
-        <v>-1</v>
-      </c>
-      <c r="O5">
-        <v>-1</v>
-      </c>
-      <c r="P5">
-        <v>-1</v>
-      </c>
-      <c r="Q5">
-        <v>-1</v>
-      </c>
-      <c r="R5">
-        <v>-1</v>
-      </c>
-      <c r="S5">
-        <v>50</v>
-      </c>
-      <c r="T5" t="b">
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6">
+        <v>10005</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="U5">
-        <v>-1</v>
-      </c>
-      <c r="V5">
-        <v>-1</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
+      <c r="E6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6">
-        <v>104</v>
-      </c>
-      <c r="B6">
-        <v>10005</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="b">
         <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>-1</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <v>-1</v>
+      </c>
+      <c r="P6">
+        <v>-1</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>-1</v>
+      </c>
+      <c r="S6" t="b">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>-1</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>-1</v>
-      </c>
-      <c r="N6">
-        <v>-1</v>
-      </c>
-      <c r="O6">
-        <v>-1</v>
-      </c>
-      <c r="P6">
-        <v>-1</v>
-      </c>
-      <c r="Q6">
-        <v>-1</v>
-      </c>
-      <c r="R6">
-        <v>-1</v>
-      </c>
-      <c r="S6">
-        <v>-1</v>
-      </c>
-      <c r="T6" t="b">
+      <c r="T6">
+        <v>-1</v>
+      </c>
+      <c r="U6">
+        <v>-1</v>
+      </c>
+      <c r="V6">
+        <v>-1</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7">
+        <v>10006</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="U6">
-        <v>-1</v>
-      </c>
-      <c r="V6">
-        <v>-1</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>-1</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
-      <c r="Z6">
+      <c r="E7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7">
-        <v>104</v>
-      </c>
-      <c r="B7">
-        <v>10006</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="b">
         <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7">
+        <v>-1</v>
+      </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="b">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>-1</v>
-      </c>
-      <c r="L7">
-        <v>-1</v>
-      </c>
-      <c r="M7">
-        <v>-1</v>
-      </c>
-      <c r="N7">
-        <v>-1</v>
-      </c>
-      <c r="O7">
-        <v>-1</v>
-      </c>
-      <c r="P7">
-        <v>-1</v>
-      </c>
-      <c r="Q7">
-        <v>-1</v>
-      </c>
-      <c r="R7">
-        <v>-1</v>
-      </c>
-      <c r="S7">
-        <v>-1</v>
-      </c>
-      <c r="T7" t="b">
+      <c r="T7">
+        <v>-1</v>
+      </c>
+      <c r="U7">
+        <v>-1</v>
+      </c>
+      <c r="V7">
+        <v>-1</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8">
+        <v>10007</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="U7">
-        <v>-1</v>
-      </c>
-      <c r="V7">
-        <v>-1</v>
-      </c>
-      <c r="W7">
-        <v>-1</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
-      <c r="Y7">
-        <v>-1</v>
-      </c>
-      <c r="Z7">
+      <c r="E8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8">
-        <v>104</v>
-      </c>
-      <c r="B8">
-        <v>10007</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8" t="b">
         <v>1</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
+      <c r="I8" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
       </c>
       <c r="L8">
         <v>-1</v>
@@ -3758,14 +3928,14 @@
         <v>-1</v>
       </c>
       <c r="R8">
-        <v>-1</v>
-      </c>
-      <c r="S8">
         <v>50</v>
       </c>
-      <c r="T8" t="b">
+      <c r="S8" t="b">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>-1</v>
+      </c>
       <c r="U8">
         <v>-1</v>
       </c>
@@ -3779,9 +3949,6 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
-      </c>
-      <c r="Z8">
         <v>1</v>
       </c>
     </row>
@@ -3793,7 +3960,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3813,31 +4024,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
         <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3873,7 +4084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -3895,40 +4106,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>53</v>
-      </c>
-      <c r="K1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3973,7 +4184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3990,19 +4201,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4029,7 +4240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4045,13 +4256,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/DocAndArt/xlsx/excelToJson/config.xlsx
+++ b/DocAndArt/xlsx/excelToJson/config.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
@@ -2102,7 +2102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>gId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2136,307 +2136,315 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>uManId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uSupplyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goldAward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initGenTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isCoexist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refreshInteval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRefreshDied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initHideTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hideDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initStop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSplit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initManTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manShowDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manShowInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manShowCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uManId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGenOnStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortGenPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uSuplyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suplyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGenOnStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGenOnStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refreshInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refreshInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlimitCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suplyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suplyBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDisappear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addLifeCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletSupplyRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeSupplyRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roundCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707,501;627,196;193,260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920,684;915,85;238,618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movegenPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707,501;627,196;193,260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920,684;915,85;238,618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movEndPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movemidPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movePosID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movePosID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>uMonsterId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uManId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uSupplyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goldAward</t>
+    <t>10004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uMonsterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005,10006,10007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>monsterId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initGenTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isCoexist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refreshInteval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRefreshDied</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initHideTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hideDelta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showDelta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initStop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stopInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stopDelta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isSplit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>childId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initManTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manShowDelta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manShowInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manShowCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uManId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isGenOnStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fortGenPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fortHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uSuplyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suplyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isGenOnStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isGenOnStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refreshInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refreshInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxlimitCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suplyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suplyBullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDisappear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addLifeCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletSupplyRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeSupplyRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fortId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roundCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>707,501;627,196;193,260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920,684;915,85;238,618</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>genPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movegenPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>707,501;627,196;193,260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920,684;915,85;238,618</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movEndPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movemidPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movePosID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movePosID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uMonsterId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10005，10006，10007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2517,7 +2525,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2538,6 +2546,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2844,7 +2855,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2891,16 +2902,16 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2911,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>120</v>
@@ -2949,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -2987,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>60</v>
@@ -3025,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -3063,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>-1</v>
@@ -3101,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>60</v>
@@ -3139,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -3177,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -3215,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -3261,55 +3272,56 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="6" customWidth="1"/>
     <col min="2" max="2" width="36.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>8</v>
+      <c r="A1" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>101</v>
       </c>
-      <c r="B2" s="6">
-        <v>10001</v>
+      <c r="B2" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>102</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>103</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>104</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3326,7 +3338,9 @@
   </sheetPr>
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3359,79 +3373,79 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>32</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -3679,10 +3693,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -3901,10 +3915,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -3968,7 +3982,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3982,19 +3996,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4024,31 +4038,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4106,40 +4120,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
-      </c>
-      <c r="L1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4201,19 +4215,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4256,13 +4270,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/DocAndArt/xlsx/excelToJson/config.xlsx
+++ b/DocAndArt/xlsx/excelToJson/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GuanQia" sheetId="1" r:id="rId1"/>
@@ -2102,7 +2102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <t>gId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2136,6 +2136,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>uMonsterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>uManId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2364,14 +2368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>707,501;627,196;193,260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920,684;915,85;238,618</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10007,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2392,14 +2388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>707,501;627,196;193,260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920,684;915,85;238,618</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>movEndPos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2412,39 +2400,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>uMonsterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>915,85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50001</t>
+  </si>
+  <si>
+    <t>50002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920,684</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238,618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707,501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>627,196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193,260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005,10006,10007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>movePosID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uMonsterId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>retType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uMonsterId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10005,10006,10007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2525,11 +2540,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2538,17 +2550,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2854,13 +2863,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
@@ -2870,14 +2879,14 @@
     <col min="8" max="8" width="19.375" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="16.625" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
     <col min="14" max="14" width="21.625" customWidth="1"/>
     <col min="15" max="15" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2902,27 +2911,27 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1011</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>120</v>
@@ -2953,14 +2962,14 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1012</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -2991,14 +3000,14 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>1013</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>60</v>
@@ -3029,14 +3038,14 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1021</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -3067,14 +3076,14 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>1022</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>-1</v>
@@ -3105,14 +3114,14 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>1023</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>60</v>
@@ -3143,14 +3152,14 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>1031</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -3181,14 +3190,14 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>1032</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -3219,14 +3228,14 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>1033</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -3272,56 +3281,55 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="36.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>85</v>
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6">
+      <c r="A2">
         <v>101</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>83</v>
+      <c r="B2" s="3">
+        <v>10001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6">
+      <c r="A3">
         <v>102</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>82</v>
+      <c r="B3" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6">
+      <c r="A4">
         <v>103</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>79</v>
+      <c r="B4" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6">
+      <c r="A5">
         <v>104</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>84</v>
+      <c r="B5" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +3347,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3352,7 +3360,7 @@
     <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="3" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="11.375" customWidth="1"/>
     <col min="14" max="14" width="10.875" customWidth="1"/>
@@ -3372,80 +3380,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
+      <c r="A1" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -3470,10 +3478,10 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>-1</v>
       </c>
       <c r="K2">
@@ -3544,10 +3552,10 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>-1</v>
       </c>
       <c r="K3">
@@ -3618,10 +3626,10 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>-1</v>
       </c>
       <c r="K4">
@@ -3692,11 +3700,11 @@
       <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>66</v>
+      <c r="I5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -3766,10 +3774,10 @@
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>-1</v>
       </c>
       <c r="K6">
@@ -3840,10 +3848,10 @@
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>-1</v>
       </c>
       <c r="K7">
@@ -3914,11 +3922,11 @@
       <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>73</v>
+      <c r="I8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -3979,36 +3987,87 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>50001</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>50002</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>50003</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4038,31 +4097,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4120,40 +4179,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4215,19 +4274,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4270,13 +4329,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/DocAndArt/xlsx/excelToJson/config.xlsx
+++ b/DocAndArt/xlsx/excelToJson/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="GuanQia" sheetId="1" r:id="rId1"/>
@@ -923,6 +923,16 @@
           <t xml:space="preserve">
 </t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>毫秒</t>
+        </r>
       </text>
     </comment>
     <comment ref="E1" authorId="0">
@@ -2176,290 +2186,290 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>timer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initHideTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hideDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initStop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSplit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initManTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manShowDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manShowInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manShowCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uManId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGenOnStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortGenPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uSuplyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suplyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGenOnStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGenOnStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refreshInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refreshInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlimitCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suplyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suplyBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDisappear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addLifeCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletSupplyRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeSupplyRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roundCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movegenPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movEndPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movemidPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movePosID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uMonsterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>915,85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50001</t>
+  </si>
+  <si>
+    <t>50002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920,684</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238,618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707,501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>627,196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193,260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005,10006,10007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movePosID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>isRefreshDied</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initHideTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hideDelta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showDelta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initStop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stopInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stopDelta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isSplit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>childId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initManTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manShowDelta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manShowInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manShowCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uManId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isGenOnStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fortGenPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fortHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uSuplyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suplyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isGenOnStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isGenOnStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refreshInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refreshInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxlimitCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suplyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suplyBullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDisappear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addLifeCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletSupplyRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeSupplyRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fortId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roundCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10007,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>genPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movegenPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movEndPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movemidPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movePosID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uMonsterId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>915,85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50001</t>
-  </si>
-  <si>
-    <t>50002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920,684</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>238,618</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>707,501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>627,196</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>193,260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>retType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10005,10006,10007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movePosID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2863,8 +2873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2911,7 +2921,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -2931,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>120</v>
@@ -2969,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -3007,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>60</v>
@@ -3045,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -3083,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>-1</v>
@@ -3121,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>60</v>
@@ -3159,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -3197,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -3235,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -3281,7 +3291,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3313,7 +3323,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3321,7 +3331,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3329,7 +3339,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3347,7 +3357,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3399,61 +3409,61 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>32</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -3701,10 +3711,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -3834,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -3908,7 +3918,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3923,10 +3933,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -3989,8 +3999,8 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4004,19 +4014,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4024,13 +4034,13 @@
         <v>50001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>-1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -4041,13 +4051,13 @@
         <v>50002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>-1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -4058,13 +4068,13 @@
         <v>50003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>-1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4097,31 +4107,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4179,40 +4189,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
-      </c>
-      <c r="L1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4274,19 +4284,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4329,13 +4339,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/DocAndArt/xlsx/excelToJson/config.xlsx
+++ b/DocAndArt/xlsx/excelToJson/config.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
@@ -2112,7 +2112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>gId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2470,6 +2470,10 @@
   </si>
   <si>
     <t>isRefreshDied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3131,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>60</v>
@@ -3291,7 +3295,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3357,7 +3361,7 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/DocAndArt/xlsx/excelToJson/config.xlsx
+++ b/DocAndArt/xlsx/excelToJson/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GuanQia" sheetId="1" r:id="rId1"/>
@@ -853,6 +853,109 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>guojiesheng</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>配置类型</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>正常配置类型，一个一个</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Id</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">读取
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2 ID+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>数量类型</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10001,10;10002,20</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>Administrator</author>
     <author>LIN</author>
   </authors>
@@ -896,7 +999,9 @@
 6隐身随机移动怪
 7间歇随机移动怪
 8分裂怪
-9间谍怪</t>
+9间谍怪
+10平民
+11攻击堡垒怪</t>
         </r>
       </text>
     </comment>
@@ -1048,6 +1153,17 @@
           <t xml:space="preserve">
 </t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>对于堡垒攻击怪，genPos还可以直接填1 2 3 4
+1上 2左 3下 4右</t>
+        </r>
       </text>
     </comment>
     <comment ref="J1" authorId="0">
@@ -1072,6 +1188,17 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>对于堡垒攻击怪，如果genPos填1 2 3 4
+那么movePosId就表示初始化时理堡垒的距离</t>
         </r>
       </text>
     </comment>
@@ -1449,64 +1576,6 @@
           </rPr>
           <t xml:space="preserve">
 </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>l</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>移动起点</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>移动过度点；
-如果有过度点，则按过渡点的先后顺序移动；
-多点情况，用逗号隔开；</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1.直接回到起点；
-2.原路返回起点；</t>
         </r>
       </text>
     </comment>
@@ -1517,55 +1586,38 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Administrator</author>
+    <author>l</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>平民集</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Id
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>刷新间隔</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>移动起点</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>移动过度点；
+如果有过度点，则按过渡点的先后顺序移动；
+多点情况，用逗号隔开；</t>
         </r>
       </text>
     </comment>
@@ -1580,116 +1632,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>是否开局生成</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>初次生成时间</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>是否为堡垒</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堡垒生成位置</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>堡垒生命值</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>1.直接回到起点；
+2.原路返回起点；</t>
         </r>
       </text>
     </comment>
@@ -1713,7 +1657,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>补给集</t>
+          <t>平民集</t>
         </r>
         <r>
           <rPr>
@@ -1727,41 +1671,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>补给</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Id</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D1" authorId="0">
       <text>
         <r>
@@ -1773,6 +1682,31 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>刷新间隔</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t>是否开局生成</t>
         </r>
         <r>
@@ -1787,18 +1721,42 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>初次生成时间</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>出现概率</t>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>是否为堡垒</t>
         </r>
         <r>
           <rPr>
@@ -1823,7 +1781,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>同场上限数量</t>
+          <t>堡垒生成位置</t>
         </r>
         <r>
           <rPr>
@@ -1848,82 +1806,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>补给时间</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>补给弹药</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>是否消失</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>持续时间</t>
+          <t>堡垒生命值</t>
         </r>
         <r>
           <rPr>
@@ -1947,6 +1830,30 @@
     <author>Administrator</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>补给集</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Id
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B1" authorId="0">
       <text>
         <r>
@@ -1958,32 +1865,17 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>增加生命数量</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>子弹补充出现概率提升</t>
+          <t>补给</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Id</t>
         </r>
         <r>
           <rPr>
@@ -2008,32 +1900,157 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>时间补给出现概率提升</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>售价</t>
+          <t>是否开局生成</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>出现概率</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>同场上限数量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>补给时间</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>补给弹药</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>是否消失</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>持续时间</t>
         </r>
         <r>
           <rPr>
@@ -2068,6 +2085,116 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>增加生命数量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>子弹补充出现概率提升</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>时间补给出现概率提升</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>售价</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t>波数</t>
         </r>
         <r>
@@ -2112,7 +2239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t>gId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2386,94 +2513,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>movegenPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movEndPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movemidPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uMonsterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>915,85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50001</t>
+  </si>
+  <si>
+    <t>50002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920,684</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238,618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707,501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>627,196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193,260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005,10006,10007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movePosID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRefreshDied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10008,3;10009,4;10010,3;10011,4;10012,5;10013,3;10014,5;10015,3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movePosID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>genPos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>movegenPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movEndPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movemidPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movePosID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uMonsterId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002,10003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>915,85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50001</t>
-  </si>
-  <si>
-    <t>50002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920,684</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>238,618</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>707,501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>627,196</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>193,260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>retType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10005,10006,10007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movePosID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRefreshDied</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10003,10</t>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2554,7 +2727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2572,6 +2745,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2875,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2925,7 +3101,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -3135,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7">
         <v>60</v>
@@ -3277,6 +3453,44 @@
       </c>
       <c r="L10">
         <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>1041</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>60001</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>105</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3292,64 +3506,91 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="91.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2" s="3">
         <v>10001</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3358,10 +3599,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3374,7 +3615,7 @@
     <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="3" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="11.375" customWidth="1"/>
     <col min="14" max="14" width="10.875" customWidth="1"/>
@@ -3413,16 +3654,16 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
         <v>44</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -3715,10 +3956,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -3937,10 +4178,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -3985,6 +4226,598 @@
         <v>-1</v>
       </c>
       <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9">
+        <v>10008</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+      <c r="N9">
+        <v>-1</v>
+      </c>
+      <c r="O9">
+        <v>-1</v>
+      </c>
+      <c r="P9">
+        <v>-1</v>
+      </c>
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+      <c r="R9">
+        <v>50</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>-1</v>
+      </c>
+      <c r="U9">
+        <v>-1</v>
+      </c>
+      <c r="V9">
+        <v>-1</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10">
+        <v>10009</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+      <c r="O10">
+        <v>-1</v>
+      </c>
+      <c r="P10">
+        <v>-1</v>
+      </c>
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+      <c r="R10">
+        <v>50</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>-1</v>
+      </c>
+      <c r="U10">
+        <v>-1</v>
+      </c>
+      <c r="V10">
+        <v>-1</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11">
+        <v>10010</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>-1</v>
+      </c>
+      <c r="N11">
+        <v>-1</v>
+      </c>
+      <c r="O11">
+        <v>-1</v>
+      </c>
+      <c r="P11">
+        <v>-1</v>
+      </c>
+      <c r="Q11">
+        <v>-1</v>
+      </c>
+      <c r="R11">
+        <v>50</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>-1</v>
+      </c>
+      <c r="U11">
+        <v>-1</v>
+      </c>
+      <c r="V11">
+        <v>-1</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12">
+        <v>10011</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+      <c r="N12">
+        <v>-1</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+      <c r="P12">
+        <v>-1</v>
+      </c>
+      <c r="Q12">
+        <v>-1</v>
+      </c>
+      <c r="R12">
+        <v>50</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>-1</v>
+      </c>
+      <c r="U12">
+        <v>-1</v>
+      </c>
+      <c r="V12">
+        <v>-1</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13">
+        <v>10012</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13">
+        <v>-1</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="N13">
+        <v>-1</v>
+      </c>
+      <c r="O13">
+        <v>-1</v>
+      </c>
+      <c r="P13">
+        <v>-1</v>
+      </c>
+      <c r="Q13">
+        <v>-1</v>
+      </c>
+      <c r="R13">
+        <v>50</v>
+      </c>
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>-1</v>
+      </c>
+      <c r="U13">
+        <v>-1</v>
+      </c>
+      <c r="V13">
+        <v>-1</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14">
+        <v>10013</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+      <c r="N14">
+        <v>-1</v>
+      </c>
+      <c r="O14">
+        <v>-1</v>
+      </c>
+      <c r="P14">
+        <v>-1</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+      <c r="R14">
+        <v>50</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>-1</v>
+      </c>
+      <c r="U14">
+        <v>-1</v>
+      </c>
+      <c r="V14">
+        <v>-1</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15">
+        <v>10014</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>-1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15">
+        <v>-1</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15">
+        <v>-1</v>
+      </c>
+      <c r="O15">
+        <v>-1</v>
+      </c>
+      <c r="P15">
+        <v>-1</v>
+      </c>
+      <c r="Q15">
+        <v>-1</v>
+      </c>
+      <c r="R15">
+        <v>50</v>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>-1</v>
+      </c>
+      <c r="U15">
+        <v>-1</v>
+      </c>
+      <c r="V15">
+        <v>-1</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16">
+        <v>10015</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+      <c r="M16">
+        <v>-1</v>
+      </c>
+      <c r="N16">
+        <v>-1</v>
+      </c>
+      <c r="O16">
+        <v>-1</v>
+      </c>
+      <c r="P16">
+        <v>-1</v>
+      </c>
+      <c r="Q16">
+        <v>-1</v>
+      </c>
+      <c r="R16">
+        <v>50</v>
+      </c>
+      <c r="S16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>-1</v>
+      </c>
+      <c r="U16">
+        <v>-1</v>
+      </c>
+      <c r="V16">
+        <v>-1</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
         <v>1</v>
       </c>
     </row>
@@ -4018,19 +4851,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4038,13 +4871,13 @@
         <v>50001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>-1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -4055,13 +4888,13 @@
         <v>50002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>-1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -4072,13 +4905,13 @@
         <v>50003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>-1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>2</v>

--- a/DocAndArt/xlsx/excelToJson/config.xlsx
+++ b/DocAndArt/xlsx/excelToJson/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="GuanQia" sheetId="1" r:id="rId1"/>
@@ -2182,6 +2182,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
+    <author>guojiesheng</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -2209,7 +2210,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>要塞血量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2221,6 +2246,31 @@
             <charset val="134"/>
           </rPr>
           <t>怪物类型</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>对应没波怪物的集合</t>
         </r>
         <r>
           <rPr>
@@ -2239,7 +2289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
   <si>
     <t>gId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2525,128 +2575,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10002,10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>915,85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50001</t>
+  </si>
+  <si>
+    <t>50002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920,684</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238,618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707,501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>627,196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193,260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005,10006,10007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movePosID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRefreshDied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movePosID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>uMonsterId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10002,10003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>915,85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50001</t>
-  </si>
-  <si>
-    <t>50002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920,684</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>238,618</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>707,501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>627,196</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>193,260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>retType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10005,10006,10007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movePosID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRefreshDied</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10003,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10008,3;10009,4;10010,3;10011,4;10012,5;10013,3;10014,5;10015,3;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movePosID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>genPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700</t>
+    <t>10008,1;10009,2;10010,3;10011,1;10012,2;10013,3;10014,2;10015,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10008,3;10009,3;10010,3;10011,3;10012,3;10013,3;10014,3;10015,3;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortPos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2727,7 +2793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2748,6 +2814,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3053,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3101,7 +3170,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -3311,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>60</v>
@@ -3463,7 +3532,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="6">
-        <v>60001</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>-1</v>
@@ -3481,7 +3550,7 @@
         <v>-1</v>
       </c>
       <c r="I11">
-        <v>105</v>
+        <v>-1</v>
       </c>
       <c r="J11">
         <v>-1</v>
@@ -3506,10 +3575,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3528,7 +3597,7 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3547,7 +3616,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3558,7 +3627,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3569,20 +3638,31 @@
         <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6">
         <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
     </row>
@@ -3601,8 +3681,8 @@
   </sheetPr>
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3654,16 +3734,16 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
         <v>44</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -3956,10 +4036,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -4178,10 +4258,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -4252,10 +4332,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K9">
         <v>-1</v>
@@ -4326,10 +4406,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K10">
         <v>-1</v>
@@ -4400,10 +4480,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>-1</v>
@@ -4474,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K12">
         <v>-1</v>
@@ -4548,10 +4628,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K13">
         <v>-1</v>
@@ -4622,10 +4702,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K14">
         <v>-1</v>
@@ -4696,10 +4776,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K15">
         <v>-1</v>
@@ -4770,10 +4850,10 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K16">
         <v>-1</v>
@@ -4851,7 +4931,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>68</v>
@@ -4863,7 +4943,7 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4871,13 +4951,13 @@
         <v>50001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>-1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -4888,13 +4968,13 @@
         <v>50002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>-1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -4905,13 +4985,13 @@
         <v>50003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>-1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -5162,19 +5242,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="2" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -5182,28 +5264,56 @@
         <v>59</v>
       </c>
       <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
         <v>60</v>
       </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7">
+        <v>105106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DocAndArt/xlsx/excelToJson/config.xlsx
+++ b/DocAndArt/xlsx/excelToJson/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="GuanQia" sheetId="1" r:id="rId1"/>
@@ -2289,7 +2289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
   <si>
     <t>gId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2700,10 +2700,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10008,1;10009,2;10010,3;10011,1;10012,2;10013,3;10014,2;10015,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10008,3;10009,3;10010,3;10011,3;10012,3;10013,3;10014,3;10015,3;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2713,6 +2709,14 @@
   </si>
   <si>
     <t>fortPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10008,1;10009,1;10010,1;10011,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105,105</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2793,7 +2797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2814,9 +2818,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3122,7 +3123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -3578,7 +3579,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3649,7 +3650,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -3660,7 +3661,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -5244,8 +5245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5257,57 +5258,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F1" t="s">
-        <v>106</v>
+      <c r="F1" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>6</v>
       </c>
-      <c r="E2" s="7">
-        <v>105106</v>
-      </c>
-      <c r="F2" t="s">
-        <v>105</v>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>106</v>
       </c>
-      <c r="F3" t="s">
-        <v>105</v>
+      <c r="F3" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
